--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.characteristic.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.characteristic.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `MedicinalProductDefinition.characteristic` 0..* `BackboneElement`
 *  R4B: `MedicinalProductDefinition.characteristic` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `MedicinalProductDefinition.characteristic` is mapped to FHIR R4 structure `MedicinalProduct`, but has no target element specified.</t>
+Element `MedicinalProductDefinition.characteristic` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:MedicinalProduct</t>
   </si>
   <si>
     <t>ID</t>
@@ -340,7 +340,7 @@
   </si>
   <si>
     <t>Element `MedicinalProductDefinition.characteristic.type` is part of an existing definition because parent element `MedicinalProductDefinition.characteristic` requires a cross-version extension.
-Element `MedicinalProductDefinition.characteristic.type` is mapped to FHIR R4 structure `MedicinalProduct`, but has no target element specified.</t>
+Element `MedicinalProductDefinition.characteristic.type` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -426,7 +426,7 @@
   </si>
   <si>
     <t>Element `MedicinalProductDefinition.characteristic.value[x]` is part of an existing definition because parent element `MedicinalProductDefinition.characteristic` requires a cross-version extension.
-Element `MedicinalProductDefinition.characteristic.value[x]` is mapped to FHIR R4 structure `MedicinalProduct`, but has no target element specified.</t>
+Element `MedicinalProductDefinition.characteristic.value[x]` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -792,7 +792,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="157.41015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="157.44921875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.characteristic.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.characteristic.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `MedicinalProductDefinition.characteristic` 0..* `BackboneElement`
 *  R4B: `MedicinalProductDefinition.characteristic` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `MedicinalProductDefinition.characteristic` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+Element `MedicinalProductDefinition.characteristic` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,7 +340,7 @@
   </si>
   <si>
     <t>Element `MedicinalProductDefinition.characteristic.type` is part of an existing definition because parent element `MedicinalProductDefinition.characteristic` requires a cross-version extension.
-Element `MedicinalProductDefinition.characteristic.type` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+Element `MedicinalProductDefinition.characteristic.type` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -387,6 +387,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.characteristic.type</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -426,7 +429,7 @@
   </si>
   <si>
     <t>Element `MedicinalProductDefinition.characteristic.value[x]` is part of an existing definition because parent element `MedicinalProductDefinition.characteristic` requires a cross-version extension.
-Element `MedicinalProductDefinition.characteristic.value[x]` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+Element `MedicinalProductDefinition.characteristic.value[x]` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -436,6 +439,9 @@
   </si>
   <si>
     <t>Extension.extension:value.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.characteristic.value</t>
   </si>
   <si>
     <t>Extension.extension:value.value[x]</t>
@@ -792,7 +798,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="157.44921875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="157.41015625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1598,7 +1604,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1640,7 +1646,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1655,15 +1661,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1686,7 +1692,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1743,7 +1749,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1755,21 +1761,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1794,16 +1800,16 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1872,7 +1878,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1975,7 +1981,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2080,7 +2086,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2123,7 +2129,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2165,7 +2171,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2180,15 +2186,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2211,16 +2217,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2270,7 +2276,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2282,18 +2288,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2375,7 +2381,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
@@ -2390,15 +2396,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2421,13 +2427,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2478,7 +2484,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2490,10 +2496,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.characteristic.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.characteristic.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.characteristic.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.characteristic.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="139">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -339,8 +339,7 @@
     <t>A code expressing the type of characteristic.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.characteristic.type` is part of an existing definition because parent element `MedicinalProductDefinition.characteristic` requires a cross-version extension.
-Element `MedicinalProductDefinition.characteristic.type` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.characteristic.type` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -387,9 +386,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.characteristic.type</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -428,8 +424,7 @@
     <t>Text, as markdown, is intended to be used only when the item cannot ever reasonably be coded. Otherwise, for cases where a code is not available, but is feasible, use CodeableConcept.text.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.characteristic.value[x]` is part of an existing definition because parent element `MedicinalProductDefinition.characteristic` requires a cross-version extension.
-Element `MedicinalProductDefinition.characteristic.value[x]` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.characteristic.value[x]` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -439,9 +434,6 @@
   </si>
   <si>
     <t>Extension.extension:value.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.characteristic.value</t>
   </si>
   <si>
     <t>Extension.extension:value.value[x]</t>
@@ -798,7 +790,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="157.41015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="151.46484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1604,72 +1596,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1692,7 +1684,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1749,7 +1741,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1761,21 +1753,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1800,16 +1792,16 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1878,7 +1870,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1981,7 +1973,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2086,7 +2078,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2129,7 +2121,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2171,30 +2163,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2217,16 +2209,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2276,7 +2268,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2288,18 +2280,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2381,30 +2373,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2427,13 +2419,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2484,7 +2476,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2496,10 +2488,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
